--- a/Cloud_Factory/Assets/Scripts/KCH/scripts/RLHDB.xlsx
+++ b/Cloud_Factory/Assets/Scripts/KCH/scripts/RLHDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My\Documents\GitHub\Cloud-Factory\Cloud_Factory\Assets\Scripts\KCH\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432A343C-AAF9-487F-BBAE-FF4F6ECB9861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95046F1-12CB-40BD-90E8-1CAA1898D768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="19" xr2:uid="{BC9F7ADC-E532-488F-A3E9-43D482A3B2C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BC9F7ADC-E532-488F-A3E9-43D482A3B2C7}"/>
   </bookViews>
   <sheets>
     <sheet name="HintText1" sheetId="1" r:id="rId1"/>
@@ -513,29 +513,6 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="&quot;맑은 고딕&quot;"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">주변에서 내가 너무 긴장감 없이 차분하다고 걱정하던데… </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFEA4335"/>
-        <rFont val="&quot;맑은 고딕&quot;"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>혼란스러워야 하나?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1239,10 +1216,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>왠지 전혀 불안하지 않아… 이래도 되는 걸까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">등교거부 중인 중학생. 가장 친한 친구가 백혈병을 앓게 되었다. 친구가 나았으면 좋겠지만, 본인이 할 수 있는 일은 기도하는 것뿐이라서 무력함을 느끼는 중이다. 친구의 빈 책상을 보기만 해도 속이 타들어 간다. </t>
   </si>
   <si>
@@ -5927,6 +5900,47 @@
   <si>
     <t>하기 싫다는 걸 확실히 보여주려면 약간 짜증 난 표정도 지어야 하려나?</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="&quot;맑은 고딕&quot;"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>왠지 전혀 불안하지 않아…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&quot;맑은 고딕&quot;"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 이래도 되는 걸까?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">주변에서 내가 너무 긴장감 없이 차분하다고 걱정하던데… </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFEA4335"/>
+        <rFont val="&quot;맑은 고딕&quot;"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혼란스러워야 하나?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6519,7 +6533,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -6746,10 +6760,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="140.4">
@@ -6766,10 +6780,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6786,10 +6800,10 @@
         <v>17</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6806,10 +6820,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.4">
@@ -6826,10 +6840,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
@@ -6846,10 +6860,10 @@
         <v>17</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.4">
@@ -6866,10 +6880,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -6927,10 +6941,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="156">
@@ -6947,10 +6961,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.4">
@@ -6967,10 +6981,10 @@
         <v>17</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.2">
@@ -6987,10 +7001,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7007,10 +7021,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7027,10 +7041,10 @@
         <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7047,10 +7061,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -7108,10 +7122,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="140.4">
@@ -7128,10 +7142,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.4">
@@ -7148,10 +7162,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.4">
@@ -7168,10 +7182,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7188,10 +7202,10 @@
         <v>17</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7208,10 +7222,10 @@
         <v>17</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.4">
@@ -7228,10 +7242,10 @@
         <v>14</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -7289,10 +7303,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="140.4">
@@ -7309,10 +7323,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7329,10 +7343,10 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.4">
@@ -7349,10 +7363,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.4">
@@ -7369,10 +7383,10 @@
         <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="39.6">
@@ -7389,10 +7403,10 @@
         <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.4">
@@ -7409,10 +7423,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -7470,10 +7484,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="93.6">
@@ -7490,10 +7504,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7510,10 +7524,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.4">
@@ -7530,10 +7544,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.4">
@@ -7550,10 +7564,10 @@
         <v>17</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
@@ -7570,10 +7584,10 @@
         <v>14</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7590,10 +7604,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -7651,10 +7665,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="140.4">
@@ -7671,10 +7685,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="39.6">
@@ -7691,10 +7705,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.4">
@@ -7711,10 +7725,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7731,10 +7745,10 @@
         <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
@@ -7751,10 +7765,10 @@
         <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.4">
@@ -7771,10 +7785,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7832,10 +7846,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="93.6">
@@ -7852,10 +7866,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.4">
@@ -7872,10 +7886,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.4">
@@ -7892,10 +7906,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.4">
@@ -7912,10 +7926,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7932,10 +7946,10 @@
         <v>14</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7952,10 +7966,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -8013,10 +8027,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="140.4">
@@ -8033,10 +8047,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.4">
@@ -8053,10 +8067,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.4">
@@ -8073,10 +8087,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.4">
@@ -8093,10 +8107,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
@@ -8113,10 +8127,10 @@
         <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8133,10 +8147,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -8194,10 +8208,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="140.4">
@@ -8214,10 +8228,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.4">
@@ -8234,10 +8248,10 @@
         <v>17</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.4">
@@ -8254,10 +8268,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.4">
@@ -8274,10 +8288,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
@@ -8294,10 +8308,10 @@
         <v>17</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.4">
@@ -8314,10 +8328,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -8375,10 +8389,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="109.2">
@@ -8395,10 +8409,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.4">
@@ -8415,10 +8429,10 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -8435,10 +8449,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8455,10 +8469,10 @@
         <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
@@ -8475,10 +8489,10 @@
         <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="39.6">
@@ -8495,10 +8509,10 @@
         <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -8512,8 +8526,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -8655,7 +8669,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>67</v>
+        <v>290</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>36</v>
@@ -8675,10 +8689,10 @@
         <v>14</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -8692,7 +8706,7 @@
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -8736,10 +8750,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="234">
@@ -8756,10 +8770,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.4">
@@ -8776,10 +8790,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.4">
@@ -8796,10 +8810,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="39.6">
@@ -8816,10 +8830,10 @@
         <v>17</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
@@ -8836,10 +8850,10 @@
         <v>17</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="39.6">
@@ -8856,10 +8870,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -8918,10 +8932,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="109.8" thickTop="1">
@@ -8938,10 +8952,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.4">
@@ -8958,10 +8972,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -8978,10 +8992,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.4">
@@ -8998,10 +9012,10 @@
         <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
@@ -9018,10 +9032,10 @@
         <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.4">
@@ -9038,10 +9052,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -9099,10 +9113,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="78">
@@ -9119,10 +9133,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -9139,10 +9153,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -9159,10 +9173,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.4">
@@ -9179,10 +9193,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9199,10 +9213,10 @@
         <v>17</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.4">
@@ -9219,10 +9233,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -9281,10 +9295,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="124.8">
@@ -9301,10 +9315,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -9321,10 +9335,10 @@
         <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="39.6">
@@ -9341,10 +9355,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="31.2">
@@ -9361,10 +9375,10 @@
         <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9381,10 +9395,10 @@
         <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="31.2">
@@ -9401,10 +9415,10 @@
         <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -9463,10 +9477,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="78">
@@ -9483,10 +9497,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.4">
@@ -9503,10 +9517,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.4">
@@ -9523,10 +9537,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9543,10 +9557,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9563,10 +9577,10 @@
         <v>17</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="31.2">
@@ -9583,10 +9597,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -9644,10 +9658,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="109.2">
@@ -9664,10 +9678,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.4">
@@ -9684,10 +9698,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -9704,10 +9718,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.4">
@@ -9724,10 +9738,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
@@ -9744,10 +9758,10 @@
         <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9764,10 +9778,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -9825,10 +9839,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="156">
@@ -9845,10 +9859,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.4">
@@ -9865,10 +9879,10 @@
         <v>17</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.4">
@@ -9885,10 +9899,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.4">
@@ -9905,10 +9919,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
@@ -9925,10 +9939,10 @@
         <v>14</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9945,10 +9959,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -10006,10 +10020,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="124.8">
@@ -10026,10 +10040,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.4">
@@ -10046,10 +10060,10 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10066,10 +10080,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.4">
@@ -10086,10 +10100,10 @@
         <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
@@ -10106,10 +10120,10 @@
         <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.4">
@@ -10126,10 +10140,10 @@
         <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Cloud_Factory/Assets/Scripts/KCH/scripts/RLHDB.xlsx
+++ b/Cloud_Factory/Assets/Scripts/KCH/scripts/RLHDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My\Documents\GitHub\Cloud-Factory\Cloud_Factory\Assets\Scripts\KCH\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F752F9-3DC4-4114-9E31-7CF63C890C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D631C6B4-5AB2-4CA3-9040-679F2BA5261C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="19" xr2:uid="{BC9F7ADC-E532-488F-A3E9-43D482A3B2C7}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="333">
   <si>
     <t>GuestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8301,13 +8301,136 @@
       <t>&lt;/color&gt;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>비통함을 알고 싶은 동화 작가.</t>
+  </si>
+  <si>
+    <t>A children's author who wants grief.</t>
+  </si>
+  <si>
+    <t>긴장하고 싶은 예비 신입사원.</t>
+  </si>
+  <si>
+    <t>A soon-to-be-employed who wants to stay alert.</t>
+  </si>
+  <si>
+    <t>강아지를 어떻게 할지 혼란스러운 노인.</t>
+  </si>
+  <si>
+    <t>An elderly who doesn't know what to do with her puppy.</t>
+  </si>
+  <si>
+    <t>최근 일어난 일을 잊어버리고 싶은 대학생.</t>
+  </si>
+  <si>
+    <t>A college student who wants to forget about what happened.</t>
+  </si>
+  <si>
+    <t>친구의 빈 자리가 두려운 중학생.</t>
+  </si>
+  <si>
+    <t>A junior high student afraid of the empty space left by his friend.</t>
+  </si>
+  <si>
+    <t>바람 핀 여자친구와 헤어지고 싶은 프로그래머.</t>
+  </si>
+  <si>
+    <t>A programmer who wants to break up with his cheating girlfriend.</t>
+  </si>
+  <si>
+    <t>무대 공포증을 극복하고 싶은 고등학생.</t>
+  </si>
+  <si>
+    <t>A high schooler who wants to overcome her fear of stage fright.</t>
+  </si>
+  <si>
+    <t>화내는 법을 알고 싶은 초등학생.</t>
+  </si>
+  <si>
+    <t>An elementary schooler who wants to know how to be angry.</t>
+  </si>
+  <si>
+    <t>깐깐한 사장님을 버텨내고 싶은 베이커 지망생.</t>
+  </si>
+  <si>
+    <t>A dreaming baker learning to be patient with her strict boss.</t>
+  </si>
+  <si>
+    <t>엄마와 화해하고 싶은 고등학생.</t>
+  </si>
+  <si>
+    <t>A high schooler who wants to apologize to his mom.</t>
+  </si>
+  <si>
+    <t>재미있는 사람이 되고 싶은 도서점 알바생.</t>
+  </si>
+  <si>
+    <t>A part timer at a book store who wants to be a fun person.</t>
+  </si>
+  <si>
+    <t>친구들이 다 같이 하는 걸 거절하고 싶은 중학생.</t>
+  </si>
+  <si>
+    <t>A middle schooler who wants to say no to something her friends do.</t>
+  </si>
+  <si>
+    <t>언니와 사이가 좋아지고 싶은 동생.</t>
+  </si>
+  <si>
+    <t>A younger sibling struggling to be more friendly with her older sister.</t>
+  </si>
+  <si>
+    <t>엄마를 지켜주기 위해 어른이 되고 싶은 아이.</t>
+  </si>
+  <si>
+    <t>A kid who wants to be an adult to protect his mother.</t>
+  </si>
+  <si>
+    <t>사내에 있는 모르는 사람의 험담이 두려운 회사원.</t>
+  </si>
+  <si>
+    <t>An employee afraid of the anonymous hater at her work.</t>
+  </si>
+  <si>
+    <t>자식들과 소통이 부재된 아버지.</t>
+  </si>
+  <si>
+    <t>A father who lacks connection with his offsprings.</t>
+  </si>
+  <si>
+    <t>새로운 사랑이 두려운 엄마.</t>
+  </si>
+  <si>
+    <t>A mother afraid of the new love.</t>
+  </si>
+  <si>
+    <t>의지 박약으로 인해 고도비만이 되었다는 고등학생.</t>
+  </si>
+  <si>
+    <t>A high schooler who thinks his lack of will made him obese.</t>
+  </si>
+  <si>
+    <t>인간관계가 쉽게 끊어지는 대학생.</t>
+  </si>
+  <si>
+    <t>A college student whose relationships tend to end too fast.</t>
+  </si>
+  <si>
+    <t>동창회에서 가해자를 만날까 두려운 건설자.</t>
+  </si>
+  <si>
+    <t>A construction worker concerned about the chance of bumping into his bully.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8528,8 +8651,15 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8542,8 +8672,14 @@
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -8560,13 +8696,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8631,6 +8782,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8948,10 +9111,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CFFF30-AB29-403C-8730-792BDB99E757}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -9102,7 +9265,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.4">
+    <row r="8" spans="1:6" ht="27" thickBot="1">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -9120,6 +9283,26 @@
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" thickBot="1">
+      <c r="A9" s="22">
+        <v>1</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="24">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -9132,10 +9315,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D0FFE5-887D-4E2E-8757-4B7BFDFFDA1F}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -9284,7 +9467,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.4">
+    <row r="8" spans="1:6" ht="27" thickBot="1">
       <c r="A8" s="7">
         <v>10</v>
       </c>
@@ -9302,6 +9485,26 @@
       </c>
       <c r="F8" s="8" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" thickBot="1">
+      <c r="A9" s="24">
+        <v>10</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="24">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -9313,10 +9516,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53B7682-869B-42A7-9BED-FC7D9EDB7367}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -9465,7 +9668,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.4">
+    <row r="8" spans="1:6" ht="27" thickBot="1">
       <c r="A8" s="3">
         <v>11</v>
       </c>
@@ -9483,6 +9686,26 @@
       </c>
       <c r="F8" s="4" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" thickBot="1">
+      <c r="A9" s="22">
+        <v>11</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="24">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -9494,10 +9717,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B01099-FFA8-46EC-8A75-D783AB95B56D}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -9646,7 +9869,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.4">
+    <row r="8" spans="1:6" ht="27" thickBot="1">
       <c r="A8" s="7">
         <v>12</v>
       </c>
@@ -9664,6 +9887,26 @@
       </c>
       <c r="F8" s="8" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" thickBot="1">
+      <c r="A9" s="24">
+        <v>12</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="24">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -9675,10 +9918,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9C320B-1A98-4D17-A864-CFFEA4EE1FAF}">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -9827,7 +10070,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="39.6">
+    <row r="8" spans="1:6" ht="40.200000000000003" thickBot="1">
       <c r="A8" s="3">
         <v>13</v>
       </c>
@@ -9845,6 +10088,26 @@
       </c>
       <c r="F8" s="4" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" thickBot="1">
+      <c r="A9" s="22">
+        <v>13</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="24">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -9856,10 +10119,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBB7D77-150B-4361-AF30-17393C70F5DB}">
   <sheetPr codeName="Sheet14"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -10008,7 +10271,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.4">
+    <row r="8" spans="1:6" ht="27" thickBot="1">
       <c r="A8" s="7">
         <v>14</v>
       </c>
@@ -10026,6 +10289,26 @@
       </c>
       <c r="F8" s="8" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" thickBot="1">
+      <c r="A9" s="24">
+        <v>14</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="24">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -10037,10 +10320,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D27C7D8-2973-44AF-9FF1-BF5D24CE99A8}">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -10189,7 +10472,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="39.6">
+    <row r="8" spans="1:6" ht="40.200000000000003" thickBot="1">
       <c r="A8" s="3">
         <v>15</v>
       </c>
@@ -10207,6 +10490,26 @@
       </c>
       <c r="F8" s="4" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" thickBot="1">
+      <c r="A9" s="22">
+        <v>15</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="24">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -10218,10 +10521,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28496293-1BF6-486C-9664-384EE43EB78E}">
   <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -10370,7 +10673,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.4">
+    <row r="8" spans="1:6" ht="27" thickBot="1">
       <c r="A8" s="7">
         <v>16</v>
       </c>
@@ -10388,6 +10691,26 @@
       </c>
       <c r="F8" s="8" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" thickBot="1">
+      <c r="A9" s="24">
+        <v>16</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="24">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -10399,10 +10722,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B49F09-8193-4F6E-946F-0B5565222B20}">
   <sheetPr codeName="Sheet17"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -10551,7 +10874,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.4">
+    <row r="8" spans="1:6" ht="27" thickBot="1">
       <c r="A8" s="3">
         <v>17</v>
       </c>
@@ -10569,6 +10892,26 @@
       </c>
       <c r="F8" s="4" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" thickBot="1">
+      <c r="A9" s="22">
+        <v>17</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="24">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -10580,10 +10923,10 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4A7A9E-0545-44CA-A26F-6CEA32EFFA77}">
   <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -10732,7 +11075,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.4">
+    <row r="8" spans="1:6" ht="27" thickBot="1">
       <c r="A8" s="7">
         <v>18</v>
       </c>
@@ -10750,6 +11093,26 @@
       </c>
       <c r="F8" s="8" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" thickBot="1">
+      <c r="A9" s="24">
+        <v>18</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="24">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -10761,10 +11124,10 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9B6B21-8C09-4BDC-B856-0486F2C105DB}">
   <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -10913,7 +11276,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="39.6">
+    <row r="8" spans="1:6" ht="40.200000000000003" thickBot="1">
       <c r="A8" s="3">
         <v>19</v>
       </c>
@@ -10931,6 +11294,26 @@
       </c>
       <c r="F8" s="4" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" thickBot="1">
+      <c r="A9" s="22">
+        <v>19</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="24">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -10942,10 +11325,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B885467-6EBE-492E-89E6-B10155556321}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -11093,7 +11476,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.4">
+    <row r="8" spans="1:6" ht="27" thickBot="1">
       <c r="A8" s="7">
         <v>2</v>
       </c>
@@ -11111,6 +11494,26 @@
       </c>
       <c r="F8" s="8" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" thickBot="1">
+      <c r="A9" s="24">
+        <v>2</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="24">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -11122,10 +11525,10 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED59A6A-6899-4895-A09C-22FF81993A09}">
   <sheetPr codeName="Sheet20"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -11274,7 +11677,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="39.6">
+    <row r="8" spans="1:6" ht="40.200000000000003" thickBot="1">
       <c r="A8" s="7">
         <v>20</v>
       </c>
@@ -11292,6 +11695,26 @@
       </c>
       <c r="F8" s="9" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27" thickBot="1">
+      <c r="A9" s="24">
+        <v>20</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="24">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -11304,10 +11727,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59049BDD-57ED-44EB-95B0-5FDD5D9C4498}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -11456,7 +11879,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="39.6">
+    <row r="8" spans="1:6" ht="40.200000000000003" thickBot="1">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -11474,6 +11897,26 @@
       </c>
       <c r="F8" s="4" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" thickBot="1">
+      <c r="A9" s="22">
+        <v>3</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="24">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -11485,10 +11928,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950C8A97-819B-46D6-ADC7-DFC1ABD8A08D}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -11637,7 +12080,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="31.2">
+    <row r="8" spans="1:6" ht="31.8" thickBot="1">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -11655,6 +12098,26 @@
       </c>
       <c r="F8" s="8" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" thickBot="1">
+      <c r="A9" s="24">
+        <v>4</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="24">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -11666,10 +12129,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDDB621-5762-4C26-889E-334B42DEBE16}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -11819,7 +12282,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="31.2">
+    <row r="8" spans="1:6" ht="31.8" thickBot="1">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -11837,6 +12300,26 @@
       </c>
       <c r="F8" s="4" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" thickBot="1">
+      <c r="A9" s="22">
+        <v>5</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="24">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -11849,10 +12332,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98556F96-757F-417E-8E66-1F552B750713}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -12001,7 +12484,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="31.2">
+    <row r="8" spans="1:6" ht="31.8" thickBot="1">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -12019,6 +12502,26 @@
       </c>
       <c r="F8" s="8" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" thickBot="1">
+      <c r="A9" s="24">
+        <v>6</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="24">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -12030,10 +12533,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7187694A-EACC-48D4-89B9-74010FC07C18}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -12182,7 +12685,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.4">
+    <row r="8" spans="1:6" ht="27" thickBot="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -12200,6 +12703,26 @@
       </c>
       <c r="F8" s="4" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" thickBot="1">
+      <c r="A9" s="22">
+        <v>7</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="24">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -12211,10 +12734,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B4400D-E83A-4C8D-BAAD-42CBC38A72E1}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -12363,7 +12886,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.4">
+    <row r="8" spans="1:6" ht="27" thickBot="1">
       <c r="A8" s="7">
         <v>8</v>
       </c>
@@ -12381,6 +12904,26 @@
       </c>
       <c r="F8" s="8" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" thickBot="1">
+      <c r="A9" s="24">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="24">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -12392,10 +12935,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FC2B15-EFAA-43F7-BC96-7FBCFF7CC58E}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -12544,7 +13087,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.4">
+    <row r="8" spans="1:6" ht="27" thickBot="1">
       <c r="A8" s="3">
         <v>9</v>
       </c>
@@ -12562,6 +13105,26 @@
       </c>
       <c r="F8" s="4" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" thickBot="1">
+      <c r="A9" s="22">
+        <v>9</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="24">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/Cloud_Factory/Assets/Scripts/KCH/scripts/RLHDB.xlsx
+++ b/Cloud_Factory/Assets/Scripts/KCH/scripts/RLHDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My\Documents\GitHub\Cloud-Factory\Cloud_Factory\Assets\Scripts\KCH\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8C93A2-6615-4412-A92F-456AFD8506E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABF1406-A410-4906-9B63-3DA7E6C9D35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="15" xr2:uid="{BC9F7ADC-E532-488F-A3E9-43D482A3B2C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{BC9F7ADC-E532-488F-A3E9-43D482A3B2C7}"/>
   </bookViews>
   <sheets>
     <sheet name="HintText1" sheetId="1" r:id="rId1"/>
@@ -6240,126 +6240,6 @@
     <t>summary</t>
   </si>
   <si>
-    <t>비통함을 알고 싶은 동화 작가.</t>
-  </si>
-  <si>
-    <t>A children's author who wants grief.</t>
-  </si>
-  <si>
-    <t>긴장하고 싶은 예비 신입사원.</t>
-  </si>
-  <si>
-    <t>A soon-to-be-employed who wants to stay alert.</t>
-  </si>
-  <si>
-    <t>강아지를 어떻게 할지 혼란스러운 노인.</t>
-  </si>
-  <si>
-    <t>An elderly who doesn't know what to do with her puppy.</t>
-  </si>
-  <si>
-    <t>최근 일어난 일을 잊어버리고 싶은 대학생.</t>
-  </si>
-  <si>
-    <t>A college student who wants to forget about what happened.</t>
-  </si>
-  <si>
-    <t>친구의 빈 자리가 두려운 중학생.</t>
-  </si>
-  <si>
-    <t>A junior high student afraid of the empty space left by his friend.</t>
-  </si>
-  <si>
-    <t>바람 핀 여자친구와 헤어지고 싶은 프로그래머.</t>
-  </si>
-  <si>
-    <t>A programmer who wants to break up with his cheating girlfriend.</t>
-  </si>
-  <si>
-    <t>무대 공포증을 극복하고 싶은 고등학생.</t>
-  </si>
-  <si>
-    <t>A high schooler who wants to overcome her fear of stage fright.</t>
-  </si>
-  <si>
-    <t>화내는 법을 알고 싶은 초등학생.</t>
-  </si>
-  <si>
-    <t>An elementary schooler who wants to know how to be angry.</t>
-  </si>
-  <si>
-    <t>깐깐한 사장님을 버텨내고 싶은 베이커 지망생.</t>
-  </si>
-  <si>
-    <t>A dreaming baker learning to be patient with her strict boss.</t>
-  </si>
-  <si>
-    <t>엄마와 화해하고 싶은 고등학생.</t>
-  </si>
-  <si>
-    <t>A high schooler who wants to apologize to his mom.</t>
-  </si>
-  <si>
-    <t>재미있는 사람이 되고 싶은 도서점 알바생.</t>
-  </si>
-  <si>
-    <t>A part timer at a book store who wants to be a fun person.</t>
-  </si>
-  <si>
-    <t>친구들이 다 같이 하는 걸 거절하고 싶은 중학생.</t>
-  </si>
-  <si>
-    <t>A middle schooler who wants to say no to something her friends do.</t>
-  </si>
-  <si>
-    <t>언니와 사이가 좋아지고 싶은 동생.</t>
-  </si>
-  <si>
-    <t>A younger sibling struggling to be more friendly with her older sister.</t>
-  </si>
-  <si>
-    <t>엄마를 지켜주기 위해 어른이 되고 싶은 아이.</t>
-  </si>
-  <si>
-    <t>A kid who wants to be an adult to protect his mother.</t>
-  </si>
-  <si>
-    <t>사내에 있는 모르는 사람의 험담이 두려운 회사원.</t>
-  </si>
-  <si>
-    <t>An employee afraid of the anonymous hater at her work.</t>
-  </si>
-  <si>
-    <t>자식들과 소통이 부재된 아버지.</t>
-  </si>
-  <si>
-    <t>A father who lacks connection with his offsprings.</t>
-  </si>
-  <si>
-    <t>새로운 사랑이 두려운 엄마.</t>
-  </si>
-  <si>
-    <t>A mother afraid of the new love.</t>
-  </si>
-  <si>
-    <t>의지 박약으로 인해 고도비만이 되었다는 고등학생.</t>
-  </si>
-  <si>
-    <t>A high schooler who thinks his lack of will made him obese.</t>
-  </si>
-  <si>
-    <t>인간관계가 쉽게 끊어지는 대학생.</t>
-  </si>
-  <si>
-    <t>A college student whose relationships tend to end too fast.</t>
-  </si>
-  <si>
-    <t>동창회에서 가해자를 만날까 두려운 건설자.</t>
-  </si>
-  <si>
-    <t>A construction worker concerned about the chance of bumping into his bully.</t>
-  </si>
-  <si>
     <r>
       <t>I feel like everything will be okay... &lt;color="green"&gt;</t>
     </r>
@@ -8618,13 +8498,133 @@
       <t>If I show any aggression on my face, a fight will break out. &lt;/color&gt;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비통함을 알고 싶어한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wants to know what grieving feels like. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">곧 회사에 입사하는데 긴장이 너무 풀렸다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs some tension before going to a new work place. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">강아지를 어떻게 할지 혼란스럽다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsure how she feels about keeping the puppy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">안 좋은 기억을 떨쳐내고 일에 집중하고 싶다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wants to forget about bad memories so she can get back to work. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제일 친한 친구를 잃는 것이 두렵다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afraid of losing a best friend to a disease. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">여자친구와 안 좋은 일이 생겨서 헤어지고 싶다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wants to break up with his girlfriend after an incident. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">무대 공포증을 극복하려 한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trying to get over stage fright. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">화내는 법을 알고 싶다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wants to know how to express anger. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">깐깐한 사장님을 버텨내고 싶다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs support on enduring her strict boss. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">엄마와 화해하고 싶지만 어떻게 해야할지 모르겠다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wants to apologize to his mother but doesn't know how. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">재미있는 사람이 되고 싶어 한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wants to be a fun guy to be around. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">친구들의 무리한 요청을 거절하고 싶지만 용기가 나지 않는다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wants to say no to her friends, but peer pressure's too strong. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">오랜 세월 미워했던 언니와 화해하고 싶다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs some help with reconciling with her sister. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">엄마를 지켜주기 위해 어른이 되고 싶어한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wants to be an adult so he can protect his mother. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">사내에 있는 모르는 사람의 험담이 두렵다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afraid of anonymous people who talk behind her back. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">자식들과 소통이 부재되어 갈등을 겪고 있다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Struggling to understand his kids since they don't talk so much. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">새로 찾아온 사랑이 두렵다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afraid of a newly found love. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">의지 박약으로 인해 고도비만이 되었다고 생각한다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thinks his lack of will was the cause of obesity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">인간관계가 쉽게 끊어진다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relationships end too easily. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">동창회에서 학창시절 가해자를 만날까 두렵다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concerned about possibly meeting up with a highschool bully. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8832,13 +8832,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -8851,7 +8844,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8864,14 +8857,8 @@
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -8888,28 +8875,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8967,30 +8939,19 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -9309,7 +9270,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -9396,8 +9357,8 @@
       <c r="E4" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>234</v>
+      <c r="F4" s="19" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.4">
@@ -9416,8 +9377,8 @@
       <c r="E5" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>233</v>
+      <c r="F5" s="19" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.4">
@@ -9436,8 +9397,8 @@
       <c r="E6" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>235</v>
+      <c r="F6" s="19" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
@@ -9456,11 +9417,11 @@
       <c r="E7" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27" thickBot="1">
+      <c r="F7" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.4">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -9476,28 +9437,28 @@
       <c r="E8" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" thickBot="1">
-      <c r="A9" s="19">
+      <c r="F8" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="7">
         <v>-1</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>194</v>
+      <c r="E9" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -9512,8 +9473,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -9599,7 +9560,7 @@
         <v>137</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.2">
@@ -9619,7 +9580,7 @@
         <v>138</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="39.6">
@@ -9639,7 +9600,7 @@
         <v>139</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
@@ -9659,10 +9620,10 @@
         <v>140</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27" thickBot="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.4">
       <c r="A8" s="7">
         <v>10</v>
       </c>
@@ -9679,27 +9640,27 @@
         <v>141</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" thickBot="1">
-      <c r="A9" s="21">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="23" customFormat="1">
+      <c r="A9" s="7">
         <v>10</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="7">
         <v>-1</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>212</v>
+      <c r="E9" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -9714,7 +9675,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -9799,8 +9760,8 @@
       <c r="E4" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>283</v>
+      <c r="F4" s="19" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.2">
@@ -9820,7 +9781,7 @@
         <v>143</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.4">
@@ -9839,8 +9800,8 @@
       <c r="E6" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>285</v>
+      <c r="F6" s="19" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
@@ -9859,11 +9820,11 @@
       <c r="E7" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27" thickBot="1">
+      <c r="F7" s="19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.4">
       <c r="A8" s="3">
         <v>11</v>
       </c>
@@ -9879,28 +9840,28 @@
       <c r="E8" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" thickBot="1">
-      <c r="A9" s="19">
+      <c r="F8" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="23" customFormat="1">
+      <c r="A9" s="3">
         <v>11</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="7">
         <v>-1</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>214</v>
+      <c r="E9" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -9914,8 +9875,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -10001,7 +9962,7 @@
         <v>147</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.4">
@@ -10021,7 +9982,7 @@
         <v>148</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.4">
@@ -10041,7 +10002,7 @@
         <v>149</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
@@ -10061,10 +10022,10 @@
         <v>150</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27" thickBot="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.4">
       <c r="A8" s="7">
         <v>12</v>
       </c>
@@ -10081,27 +10042,27 @@
         <v>151</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" thickBot="1">
-      <c r="A9" s="21">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="23" customFormat="1">
+      <c r="A9" s="7">
         <v>12</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="7">
         <v>-1</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>216</v>
+      <c r="E9" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -10115,8 +10076,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -10201,8 +10162,8 @@
       <c r="E4" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>293</v>
+      <c r="F4" s="19" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.4">
@@ -10221,8 +10182,8 @@
       <c r="E5" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>294</v>
+      <c r="F5" s="19" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.4">
@@ -10241,8 +10202,8 @@
       <c r="E6" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>295</v>
+      <c r="F6" s="19" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="39.6">
@@ -10261,11 +10222,11 @@
       <c r="E7" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="40.200000000000003" thickBot="1">
+      <c r="F7" s="19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39.6">
       <c r="A8" s="3">
         <v>13</v>
       </c>
@@ -10281,28 +10242,28 @@
       <c r="E8" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" thickBot="1">
-      <c r="A9" s="19">
+      <c r="F8" s="19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="23" customFormat="1">
+      <c r="A9" s="3">
         <v>13</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="7">
         <v>-1</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>218</v>
+      <c r="E9" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -10317,7 +10278,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -10403,7 +10364,7 @@
         <v>157</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.2">
@@ -10423,7 +10384,7 @@
         <v>158</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.4">
@@ -10443,7 +10404,7 @@
         <v>159</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
@@ -10463,10 +10424,10 @@
         <v>160</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27" thickBot="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.4">
       <c r="A8" s="7">
         <v>14</v>
       </c>
@@ -10483,27 +10444,27 @@
         <v>161</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" thickBot="1">
-      <c r="A9" s="21">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="23" customFormat="1">
+      <c r="A9" s="7">
         <v>14</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="7">
         <v>-1</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>220</v>
+      <c r="E9" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -10518,7 +10479,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -10603,8 +10564,8 @@
       <c r="E4" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>303</v>
+      <c r="F4" s="19" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="39.6">
@@ -10623,8 +10584,8 @@
       <c r="E5" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>304</v>
+      <c r="F5" s="19" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10643,8 +10604,8 @@
       <c r="E6" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>305</v>
+      <c r="F6" s="19" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
@@ -10663,11 +10624,11 @@
       <c r="E7" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="40.200000000000003" thickBot="1">
+      <c r="F7" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39.6">
       <c r="A8" s="3">
         <v>15</v>
       </c>
@@ -10683,28 +10644,28 @@
       <c r="E8" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" thickBot="1">
-      <c r="A9" s="19">
+      <c r="F8" s="19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="23" customFormat="1">
+      <c r="A9" s="3">
         <v>15</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="7">
         <v>-1</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>222</v>
+      <c r="E9" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -10718,8 +10679,8 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -10804,8 +10765,8 @@
       <c r="E4" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>308</v>
+      <c r="F4" s="20" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="39.6">
@@ -10824,8 +10785,8 @@
       <c r="E5" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>309</v>
+      <c r="F5" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.4">
@@ -10845,7 +10806,7 @@
         <v>169</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
@@ -10865,10 +10826,10 @@
         <v>170</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27" thickBot="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.4">
       <c r="A8" s="7">
         <v>16</v>
       </c>
@@ -10885,27 +10846,27 @@
         <v>171</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" thickBot="1">
-      <c r="A9" s="21">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="23" customFormat="1">
+      <c r="A9" s="7">
         <v>16</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="7">
         <v>-1</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>224</v>
+      <c r="E9" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -10919,8 +10880,8 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -11005,8 +10966,8 @@
       <c r="E4" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>313</v>
+      <c r="F4" s="19" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="39.6">
@@ -11025,8 +10986,8 @@
       <c r="E5" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>314</v>
+      <c r="F5" s="19" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="39.6">
@@ -11045,8 +11006,8 @@
       <c r="E6" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>315</v>
+      <c r="F6" s="19" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
@@ -11065,11 +11026,11 @@
       <c r="E7" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27" thickBot="1">
+      <c r="F7" s="19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.4">
       <c r="A8" s="3">
         <v>17</v>
       </c>
@@ -11085,28 +11046,28 @@
       <c r="E8" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" thickBot="1">
-      <c r="A9" s="19">
+      <c r="F8" s="19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="23" customFormat="1">
+      <c r="A9" s="3">
         <v>17</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="7">
         <v>-1</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>226</v>
+      <c r="E9" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -11120,8 +11081,8 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -11207,7 +11168,7 @@
         <v>177</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.4">
@@ -11227,7 +11188,7 @@
         <v>178</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.4">
@@ -11246,8 +11207,8 @@
       <c r="E6" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>320</v>
+      <c r="F6" s="20" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
@@ -11267,10 +11228,10 @@
         <v>180</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="40.200000000000003" thickBot="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39.6">
       <c r="A8" s="7">
         <v>18</v>
       </c>
@@ -11287,27 +11248,27 @@
         <v>181</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" thickBot="1">
-      <c r="A9" s="21">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="23" customFormat="1">
+      <c r="A9" s="7">
         <v>18</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="7">
         <v>-1</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>228</v>
+      <c r="E9" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -11321,8 +11282,8 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -11407,8 +11368,8 @@
       <c r="E4" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>323</v>
+      <c r="F4" s="19" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.4">
@@ -11427,8 +11388,8 @@
       <c r="E5" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>324</v>
+      <c r="F5" s="19" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.4">
@@ -11447,8 +11408,8 @@
       <c r="E6" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>325</v>
+      <c r="F6" s="19" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="39.6">
@@ -11467,11 +11428,11 @@
       <c r="E7" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="40.200000000000003" thickBot="1">
+      <c r="F7" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39.6">
       <c r="A8" s="3">
         <v>19</v>
       </c>
@@ -11487,28 +11448,28 @@
       <c r="E8" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" thickBot="1">
-      <c r="A9" s="19">
+      <c r="F8" s="19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="23" customFormat="1">
+      <c r="A9" s="3">
         <v>19</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="7">
         <v>-1</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>230</v>
+      <c r="E9" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -11523,7 +11484,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -11608,7 +11569,7 @@
         <v>97</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.4">
@@ -11628,7 +11589,7 @@
         <v>98</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.4">
@@ -11647,8 +11608,8 @@
       <c r="E6" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>240</v>
+      <c r="F6" s="21" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
@@ -11668,10 +11629,10 @@
         <v>100</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27" thickBot="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.4">
       <c r="A8" s="7">
         <v>2</v>
       </c>
@@ -11688,27 +11649,27 @@
         <v>101</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" thickBot="1">
-      <c r="A9" s="21">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="23" customFormat="1">
+      <c r="A9" s="7">
         <v>2</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="7">
         <v>-1</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>196</v>
+      <c r="E9" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -11722,8 +11683,8 @@
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -11809,7 +11770,7 @@
         <v>187</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.2">
@@ -11829,7 +11790,7 @@
         <v>188</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="52.8">
@@ -11849,7 +11810,7 @@
         <v>189</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="31.2">
@@ -11869,10 +11830,10 @@
         <v>190</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="40.200000000000003" thickBot="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39.6">
       <c r="A8" s="7">
         <v>20</v>
       </c>
@@ -11889,27 +11850,27 @@
         <v>191</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="23" customFormat="1">
+      <c r="A9" s="7">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="27" thickBot="1">
-      <c r="A9" s="21">
-        <v>20</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" s="21">
-        <v>-1</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -11924,8 +11885,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -12010,8 +11971,8 @@
       <c r="E4" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>243</v>
+      <c r="F4" s="19" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.4">
@@ -12030,8 +11991,8 @@
       <c r="E5" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>244</v>
+      <c r="F5" s="19" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="39.6">
@@ -12050,8 +12011,8 @@
       <c r="E6" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>245</v>
+      <c r="F6" s="19" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
@@ -12070,11 +12031,11 @@
       <c r="E7" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="40.200000000000003" thickBot="1">
+      <c r="F7" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39.6">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -12090,28 +12051,28 @@
       <c r="E8" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" thickBot="1">
-      <c r="A9" s="19">
+      <c r="F8" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="23" customFormat="1">
+      <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="7">
         <v>-1</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>198</v>
+      <c r="E9" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -12126,7 +12087,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -12212,7 +12173,7 @@
         <v>107</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.2">
@@ -12232,7 +12193,7 @@
         <v>108</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="31.2">
@@ -12252,7 +12213,7 @@
         <v>109</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="31.2">
@@ -12272,10 +12233,10 @@
         <v>110</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="31.8" thickBot="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="31.2">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -12292,27 +12253,27 @@
         <v>111</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" thickBot="1">
-      <c r="A9" s="21">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="23" customFormat="1">
+      <c r="A9" s="7">
         <v>4</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="7">
         <v>-1</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>200</v>
+      <c r="E9" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -12326,8 +12287,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -12413,8 +12374,8 @@
       <c r="E4" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>253</v>
+      <c r="F4" s="22" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="39.6">
@@ -12433,8 +12394,8 @@
       <c r="E5" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>254</v>
+      <c r="F5" s="19" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="31.2">
@@ -12453,8 +12414,8 @@
       <c r="E6" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>255</v>
+      <c r="F6" s="19" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="31.2">
@@ -12473,11 +12434,11 @@
       <c r="E7" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="31.8" thickBot="1">
+      <c r="F7" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="31.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -12493,28 +12454,28 @@
       <c r="E8" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" thickBot="1">
-      <c r="A9" s="19">
+      <c r="F8" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="23" customFormat="1">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="7">
         <v>-1</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>202</v>
+      <c r="E9" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -12530,7 +12491,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -12616,7 +12577,7 @@
         <v>117</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.4">
@@ -12636,7 +12597,7 @@
         <v>118</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.4">
@@ -12656,7 +12617,7 @@
         <v>119</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="31.2">
@@ -12676,10 +12637,10 @@
         <v>120</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="31.8" thickBot="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="31.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -12696,27 +12657,27 @@
         <v>121</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" thickBot="1">
-      <c r="A9" s="21">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="23" customFormat="1">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="7">
         <v>-1</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>204</v>
+      <c r="E9" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -12730,8 +12691,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -12816,8 +12777,8 @@
       <c r="E4" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>263</v>
+      <c r="F4" s="19" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.4">
@@ -12836,8 +12797,8 @@
       <c r="E5" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>264</v>
+      <c r="F5" s="19" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.4">
@@ -12856,8 +12817,8 @@
       <c r="E6" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>265</v>
+      <c r="F6" s="19" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
@@ -12876,11 +12837,11 @@
       <c r="E7" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27" thickBot="1">
+      <c r="F7" s="19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.4">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -12896,28 +12857,28 @@
       <c r="E8" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" thickBot="1">
-      <c r="A9" s="19">
+      <c r="F8" s="19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="23" customFormat="1">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="3">
         <v>-1</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>206</v>
+      <c r="E9" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -12931,8 +12892,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -13018,7 +12979,7 @@
         <v>127</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.4">
@@ -13038,7 +12999,7 @@
         <v>128</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="39.6">
@@ -13058,7 +13019,7 @@
         <v>129</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
@@ -13078,10 +13039,10 @@
         <v>130</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27" thickBot="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.4">
       <c r="A8" s="7">
         <v>8</v>
       </c>
@@ -13098,27 +13059,27 @@
         <v>131</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" thickBot="1">
-      <c r="A9" s="21">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="23" customFormat="1">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="7">
         <v>-1</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>208</v>
+      <c r="E9" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -13132,8 +13093,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -13218,8 +13179,8 @@
       <c r="E4" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>273</v>
+      <c r="F4" s="19" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.4">
@@ -13238,8 +13199,8 @@
       <c r="E5" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>274</v>
+      <c r="F5" s="19" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.4">
@@ -13258,8 +13219,8 @@
       <c r="E6" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>275</v>
+      <c r="F6" s="19" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.4">
@@ -13278,11 +13239,11 @@
       <c r="E7" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27" thickBot="1">
+      <c r="F7" s="19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.4">
       <c r="A8" s="3">
         <v>9</v>
       </c>
@@ -13298,28 +13259,28 @@
       <c r="E8" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" thickBot="1">
-      <c r="A9" s="19">
+      <c r="F8" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="23" customFormat="1">
+      <c r="A9" s="3">
         <v>9</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="7">
         <v>-1</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>210</v>
+      <c r="E9" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
